--- a/data/TransmitConfig.xlsx
+++ b/data/TransmitConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\projectRes\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\lgyyxyres\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E84304-5E5F-4098-BF98-9343AFAD8DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4D8DCF-361E-4009-A2FE-6DD19B200F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="4440" windowWidth="34875" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16815" yWindow="2580" windowWidth="23130" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,33 +25,7 @@
     <author>根宝</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>根宝:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1：火
-2：水
-3：风</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -80,48 +54,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>number[]</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>levelConfig</t>
-  </si>
-  <si>
-    <t>levelElem</t>
-  </si>
-  <si>
     <t>imgPath</t>
   </si>
   <si>
     <t>viewName</t>
   </si>
   <si>
-    <t>transmit</t>
-  </si>
-  <si>
-    <t>TransmitLevelConfig</t>
-  </si>
-  <si>
-    <t>[1,2,3]</t>
-  </si>
-  <si>
-    <t>{"challenge":"transmit_img_challenge","elite":"transmit_img_elite","boss":"transmit_img_boss","shop":"transmit_img_shop","event":"transmit_img_event","camp":"transmit_img_camp"}</t>
-  </si>
-  <si>
-    <t>{"shop":"ShopView","camp":"CampView","event":"EventView"}</t>
-  </si>
-  <si>
     <t>注释</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>challenge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>elite</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>camp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>transmit_img_challenge</t>
+  </si>
+  <si>
+    <t>transmit_img_elite</t>
+  </si>
+  <si>
+    <t>transmit_img_boss</t>
+  </si>
+  <si>
+    <t>transmit_img_shop</t>
+  </si>
+  <si>
+    <t>transmit_img_event</t>
+  </si>
+  <si>
+    <t>transmit_img_camp</t>
+  </si>
+  <si>
+    <t>BattleView</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopView</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CampView</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventView</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -186,11 +195,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -467,71 +473,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.875" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
-    <col min="5" max="5" width="76.625" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="76.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/TransmitConfig.xlsx
+++ b/data/TransmitConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\lgyyxyres\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4D8DCF-361E-4009-A2FE-6DD19B200F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC32165-55DE-4620-85F8-FEC0574404EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16815" yWindow="2580" windowWidth="23130" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17535" yWindow="3060" windowWidth="23130" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>string</t>
   </si>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>transmit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransmitView</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -578,6 +586,15 @@
         <v>20</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
